--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2183,10 +2195,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2230,28 +2242,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2276,28 +2288,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2513,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2548,28 +2560,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2606,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3311,10 +3323,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3358,28 +3370,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3404,28 +3416,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3658,10 +3670,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3705,28 +3717,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3751,28 +3763,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3918,10 +3930,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3965,28 +3977,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4011,28 +4023,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4178,10 +4190,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4225,28 +4237,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4271,28 +4283,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4409,10 +4421,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4456,28 +4468,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4502,28 +4514,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4611,10 +4623,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4658,28 +4670,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4704,28 +4716,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4842,10 +4854,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4889,28 +4901,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4935,28 +4947,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5015,10 +5027,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5062,28 +5074,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5108,28 +5120,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5246,10 +5258,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5293,28 +5305,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5339,28 +5351,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5419,10 +5431,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5466,28 +5478,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5512,28 +5524,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5592,10 +5604,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5639,28 +5651,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5685,28 +5697,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5823,10 +5835,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5870,28 +5882,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5916,28 +5928,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5996,10 +6008,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6043,28 +6055,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6089,28 +6101,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6169,10 +6181,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6216,28 +6228,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6262,28 +6274,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
